--- a/models/calculation engines/cbix2/outputs/capesize/final_specifications_to_viu_adjustment.xlsx
+++ b/models/calculation engines/cbix2/outputs/capesize/final_specifications_to_viu_adjustment.xlsx
@@ -609,7 +609,7 @@
         <v>0.3625</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09</v>
+        <v>0.08999999999999998</v>
       </c>
       <c r="E2" t="n">
         <v>0.0675</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>25.4579489296036</v>
+        <v>25.45794892960361</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
@@ -1857,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>41.81675633392202</v>
+        <v>41.81675633392203</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
